--- a/assets/excel/2022_7-1-1.xlsx
+++ b/assets/excel/2022_7-1-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BiesterChristophLSN\Desktop\_Schrott\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15-Uebergreifende-Analysen\Projekte\Integrationsmonitoring\github\MT_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41A3794-37C9-46DA-9E9B-EBCFC7457652}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6A2ADB-61F2-47DA-A5B5-66F4B8D36876}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" xr2:uid="{3155B511-38DB-4C27-BD94-502E83C7DBCE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$B$7:$J$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$B$8:$J$140</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="25">
   <si>
     <t>Migration und Teilhabe in Niedersachsen - Integrationsmonitoring 2022</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>1 000</t>
   </si>
 </sst>
 </file>
@@ -248,13 +251,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -271,9 +271,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -292,6 +289,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -609,9 +621,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7213AECD-42C6-4614-AB04-BB9A249C08C3}">
-  <dimension ref="B1:J150"/>
+  <dimension ref="B1:J151"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -635,2766 +649,2779 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:7" s="7" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+    <row r="7" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="2:7" s="6" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D8" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E8" s="5">
         <v>4</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F8" s="5">
         <v>5</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G8" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
+    <row r="9" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20">
         <v>2011</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E9" s="7">
         <v>2227.8000000000002</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F9" s="7">
         <v>1122.3</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G9" s="7">
         <v>1105.5</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
+    <row r="10" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="20">
         <v>2011</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E10" s="7">
         <v>1831.3</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F10" s="7">
         <v>971.6</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G10" s="7">
         <v>859.7</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
+    <row r="11" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="20">
         <v>2011</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E11" s="7">
         <v>396.5</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F11" s="7">
         <v>150.69999999999999</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G11" s="7">
         <v>245.8</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
+    <row r="12" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20">
         <v>2011</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E12" s="7">
         <v>1740.2</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F12" s="7">
         <v>938.7</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G12" s="7">
         <v>801.5</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
+    <row r="13" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20">
         <v>2011</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E13" s="7">
         <v>1421.8</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F13" s="7">
         <v>812.2</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G13" s="7">
         <v>609.70000000000005</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
+    <row r="14" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="20">
         <v>2011</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E14" s="7">
         <v>318.3</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F14" s="7">
         <v>126.5</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G14" s="7">
         <v>191.8</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
+    <row r="15" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20">
         <v>2011</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E15" s="7">
         <v>248.8</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F15" s="7">
         <v>183.6</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G15" s="7">
         <v>65.2</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
+    <row r="16" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="20">
         <v>2011</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="C16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E16" s="7">
         <v>212.9</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F16" s="7">
         <v>159.4</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G16" s="7">
         <v>53.5</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
+    <row r="17" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="20">
         <v>2011</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E17" s="7">
         <v>35.9</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F17" s="7">
         <v>24.2</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G17" s="7">
         <v>11.7</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
+    <row r="18" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="20">
         <v>2011</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="7">
         <v>238.9</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="F18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7">
         <v>238.9</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
+    <row r="19" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="20">
         <v>2011</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="C19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E19" s="7">
         <v>196.6</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="F19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="7">
         <v>196.6</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
+    <row r="20" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="20">
         <v>2011</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="C20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E20" s="7">
         <v>42.3</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="F20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="7">
         <v>42.3</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
+    <row r="21" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="20">
         <v>2012</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="C21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E21" s="7">
         <v>2223.8000000000002</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F21" s="7">
         <v>1128.4000000000001</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G21" s="7">
         <v>1095.4000000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
+    <row r="22" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="20">
         <v>2012</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="C22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E22" s="7">
         <v>1817.1</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F22" s="7">
         <v>970.1</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G22" s="7">
         <v>847</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8">
+    <row r="23" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="20">
         <v>2012</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="C23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E23" s="7">
         <v>406.6</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F23" s="7">
         <v>158.19999999999999</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G23" s="7">
         <v>248.4</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8">
+    <row r="24" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="20">
         <v>2012</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="C24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E24" s="7">
         <v>1741.7</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F24" s="7">
         <v>950.5</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G24" s="7">
         <v>791.3</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8">
+    <row r="25" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="20">
         <v>2012</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="C25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E25" s="7">
         <v>1412.7</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F25" s="7">
         <v>816.2</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G25" s="7">
         <v>596.5</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8">
+    <row r="26" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="20">
         <v>2012</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="C26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E26" s="7">
         <v>329</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F26" s="7">
         <v>134.19999999999999</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G26" s="7">
         <v>194.8</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8">
+    <row r="27" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="20">
         <v>2012</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="C27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E27" s="7">
         <v>246.2</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F27" s="7">
         <v>177.9</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G27" s="7">
         <v>68.3</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8">
+    <row r="28" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="20">
         <v>2012</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="C28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E28" s="7">
         <v>208.8</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F28" s="7">
         <v>153.9</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G28" s="7">
         <v>54.9</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8">
+    <row r="29" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="20">
         <v>2012</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="8" t="s">
+      <c r="C29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E29" s="7">
         <v>37.4</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F29" s="7">
         <v>24</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G29" s="7">
         <v>13.4</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="8">
+    <row r="30" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="20">
         <v>2012</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="C30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E30" s="7">
         <v>235.8</v>
       </c>
-      <c r="F29" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="8">
+      <c r="F30" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="7">
         <v>235.8</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8">
+    <row r="31" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="20">
         <v>2012</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="8" t="s">
+      <c r="C31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E31" s="7">
         <v>195.6</v>
       </c>
-      <c r="F30" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="8">
+      <c r="F31" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="7">
         <v>195.6</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8">
+    <row r="32" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="20">
         <v>2012</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="C32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E32" s="7">
         <v>40.200000000000003</v>
       </c>
-      <c r="F31" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="8">
+      <c r="F32" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="7">
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="8">
+    <row r="33" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="20">
         <v>2013</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="8" t="s">
+      <c r="C33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E33" s="7">
         <v>2226.9</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F33" s="7">
         <v>1139.4000000000001</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G33" s="7">
         <v>1087.5</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="8">
+    <row r="34" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="20">
         <v>2013</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="8" t="s">
+      <c r="C34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E34" s="7">
         <v>1778.6</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F34" s="7">
         <v>959.3</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G34" s="7">
         <v>819.3</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="8">
+    <row r="35" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="20">
         <v>2013</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="8" t="s">
+      <c r="C35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E35" s="7">
         <v>448.3</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F35" s="7">
         <v>180.1</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G35" s="7">
         <v>268.2</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="8">
+    <row r="36" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="20">
         <v>2013</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="8" t="s">
+      <c r="C36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E36" s="7">
         <v>1733.2</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F36" s="7">
         <v>959.8</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G36" s="7">
         <v>773.3</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="8">
+    <row r="37" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="20">
         <v>2013</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="8" t="s">
+      <c r="C37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E37" s="7">
         <v>1383.2</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F37" s="7">
         <v>814.8</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G37" s="7">
         <v>568.4</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="8">
+    <row r="38" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="20">
         <v>2013</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="8" t="s">
+      <c r="C38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E38" s="7">
         <v>350</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F38" s="7">
         <v>145</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G38" s="7">
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="8">
+    <row r="39" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="20">
         <v>2013</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="8" t="s">
+      <c r="C39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E39" s="7">
         <v>254.1</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F39" s="7">
         <v>179.5</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G39" s="7">
         <v>74.599999999999994</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="8">
+    <row r="40" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="20">
         <v>2013</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="8" t="s">
+      <c r="C40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E40" s="7">
         <v>202.8</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F40" s="7">
         <v>144.5</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G40" s="7">
         <v>58.4</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="8">
+    <row r="41" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="20">
         <v>2013</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="C41" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E41" s="7">
         <v>51.3</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F41" s="7">
         <v>35</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G41" s="7">
         <v>16.2</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="8">
+    <row r="42" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="20">
         <v>2013</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="8" t="s">
+      <c r="C42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E42" s="7">
         <v>239.6</v>
       </c>
-      <c r="F41" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" s="8">
+      <c r="F42" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="7">
         <v>239.6</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="8">
+    <row r="43" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="20">
         <v>2013</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="8" t="s">
+      <c r="C43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E43" s="7">
         <v>192.6</v>
       </c>
-      <c r="F42" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" s="8">
+      <c r="F43" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="7">
         <v>192.6</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="8">
+    <row r="44" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="20">
         <v>2013</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="8" t="s">
+      <c r="C44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E44" s="7">
         <v>47</v>
       </c>
-      <c r="F43" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" s="8">
+      <c r="F44" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="7">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="8">
+    <row r="45" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="20">
         <v>2014</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="8" t="s">
+      <c r="C45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E45" s="7">
         <v>2235.1999999999998</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F45" s="7">
         <v>1146.5</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G45" s="7">
         <v>1088.7</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="8">
+    <row r="46" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="20">
         <v>2014</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="8" t="s">
+      <c r="C46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E46" s="7">
         <v>1807.8</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F46" s="7">
         <v>977</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G46" s="7">
         <v>830.8</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="8">
+    <row r="47" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="20">
         <v>2014</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="8" t="s">
+      <c r="C47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E47" s="7">
         <v>427.5</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F47" s="7">
         <v>169.5</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G47" s="7">
         <v>257.89999999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="8">
+    <row r="48" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="20">
         <v>2014</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="8" t="s">
+      <c r="C48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E48" s="7">
         <v>1731.2</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F48" s="7">
         <v>960.1</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G48" s="7">
         <v>771.2</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="8">
+    <row r="49" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="20">
         <v>2014</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="8" t="s">
+      <c r="C49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E49" s="7">
         <v>1392.2</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F49" s="7">
         <v>819.1</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G49" s="7">
         <v>573.1</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="8">
+    <row r="50" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="20">
         <v>2014</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="8" t="s">
+      <c r="C50" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E50" s="7">
         <v>339</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F50" s="7">
         <v>140.9</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G50" s="7">
         <v>198.1</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="8">
+    <row r="51" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="20">
         <v>2014</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="8" t="s">
+      <c r="C51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E51" s="7">
         <v>266.10000000000002</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F51" s="7">
         <v>186.5</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G51" s="7">
         <v>79.7</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="8">
+    <row r="52" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="20">
         <v>2014</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="8" t="s">
+      <c r="C52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E52" s="7">
         <v>221.4</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F52" s="7">
         <v>157.9</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G52" s="7">
         <v>63.5</v>
       </c>
     </row>
-    <row r="52" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="8">
+    <row r="53" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="20">
         <v>2014</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="8" t="s">
+      <c r="C53" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E53" s="7">
         <v>44.7</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F53" s="7">
         <v>28.6</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G53" s="7">
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="8">
+    <row r="54" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="20">
         <v>2014</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="8" t="s">
+      <c r="C54" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E54" s="7">
         <v>237.9</v>
       </c>
-      <c r="F53" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" s="8">
+      <c r="F54" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="7">
         <v>237.9</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="8">
+    <row r="55" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="20">
         <v>2014</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="8" t="s">
+      <c r="C55" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E55" s="7">
         <v>194.2</v>
       </c>
-      <c r="F54" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" s="8">
+      <c r="F55" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="7">
         <v>194.2</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="8">
+    <row r="56" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="20">
         <v>2014</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="8" t="s">
+      <c r="C56" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E56" s="7">
         <v>43.7</v>
       </c>
-      <c r="F55" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" s="8">
+      <c r="F56" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="7">
         <v>43.7</v>
       </c>
     </row>
-    <row r="56" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="8">
+    <row r="57" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="20">
         <v>2015</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="8" t="s">
+      <c r="C57" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E57" s="7">
         <v>2240.5</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F57" s="7">
         <v>1148</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G57" s="7">
         <v>1092.5</v>
       </c>
     </row>
-    <row r="57" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="8">
+    <row r="58" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="20">
         <v>2015</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="8" t="s">
+      <c r="C58" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E58" s="7">
         <v>1804</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F58" s="7">
         <v>978.4</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G58" s="7">
         <v>825.6</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="8">
+    <row r="59" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="20">
         <v>2015</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="8" t="s">
+      <c r="C59" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E59" s="7">
         <v>436.5</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F59" s="7">
         <v>169.6</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G59" s="7">
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="8">
+    <row r="60" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="20">
         <v>2015</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="8" t="s">
+      <c r="C60" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E60" s="7">
         <v>1718</v>
       </c>
-      <c r="F59" s="8">
+      <c r="F60" s="7">
         <v>953.7</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G60" s="7">
         <v>764.4</v>
       </c>
     </row>
-    <row r="60" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="8">
+    <row r="61" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="20">
         <v>2015</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="8" t="s">
+      <c r="C61" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E61" s="7">
         <v>1375.2</v>
       </c>
-      <c r="F60" s="8">
+      <c r="F61" s="7">
         <v>814.2</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G61" s="7">
         <v>561</v>
       </c>
     </row>
-    <row r="61" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="8">
+    <row r="62" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="20">
         <v>2015</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="8" t="s">
+      <c r="C62" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E62" s="7">
         <v>342.9</v>
       </c>
-      <c r="F61" s="8">
+      <c r="F62" s="7">
         <v>139.5</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G62" s="7">
         <v>203.4</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="8">
+    <row r="63" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="20">
         <v>2015</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="8" t="s">
+      <c r="C63" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E63" s="7">
         <v>273.2</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F63" s="7">
         <v>194.3</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G63" s="7">
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="63" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="8">
+    <row r="64" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="20">
         <v>2015</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="8" t="s">
+      <c r="C64" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E64" s="7">
         <v>226.9</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F64" s="7">
         <v>164.2</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G64" s="7">
         <v>62.7</v>
       </c>
     </row>
-    <row r="64" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="8">
+    <row r="65" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="20">
         <v>2015</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="8" t="s">
+      <c r="C65" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E65" s="7">
         <v>46.3</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F65" s="7">
         <v>30.1</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G65" s="7">
         <v>16.2</v>
       </c>
     </row>
-    <row r="65" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="8">
+    <row r="66" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="20">
         <v>2015</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="8" t="s">
+      <c r="C66" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E66" s="7">
         <v>249.2</v>
       </c>
-      <c r="F65" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" s="8">
+      <c r="F66" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="7">
         <v>249.2</v>
       </c>
     </row>
-    <row r="66" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="8">
+    <row r="67" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="20">
         <v>2015</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" s="8" t="s">
+      <c r="C67" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E67" s="7">
         <v>201.9</v>
       </c>
-      <c r="F66" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" s="8">
+      <c r="F67" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" s="7">
         <v>201.9</v>
       </c>
     </row>
-    <row r="67" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="8">
+    <row r="68" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="20">
         <v>2015</v>
       </c>
-      <c r="C67" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="8" t="s">
+      <c r="C68" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E68" s="7">
         <v>47.3</v>
       </c>
-      <c r="F67" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" s="8">
+      <c r="F68" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="7">
         <v>47.3</v>
       </c>
     </row>
-    <row r="68" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="8">
+    <row r="69" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="20">
         <v>2016</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="8" t="s">
+      <c r="C69" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E69" s="7">
         <v>2256.1</v>
       </c>
-      <c r="F68" s="8">
+      <c r="F69" s="7">
         <v>1144.0999999999999</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G69" s="7">
         <v>1112.0999999999999</v>
       </c>
     </row>
-    <row r="69" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="8">
+    <row r="70" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="20">
         <v>2016</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" s="8" t="s">
+      <c r="C70" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E70" s="7">
         <v>1779.4</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F70" s="7">
         <v>959.4</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G70" s="7">
         <v>819.9</v>
       </c>
     </row>
-    <row r="70" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="8">
+    <row r="71" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="20">
         <v>2016</v>
       </c>
-      <c r="C70" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="8" t="s">
+      <c r="C71" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E71" s="7">
         <v>476.8</v>
       </c>
-      <c r="F70" s="8">
+      <c r="F71" s="7">
         <v>184.6</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G71" s="7">
         <v>292.10000000000002</v>
       </c>
     </row>
-    <row r="71" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="8">
+    <row r="72" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="20">
         <v>2016</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="8" t="s">
+      <c r="C72" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E72" s="7">
         <v>1728</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F72" s="7">
         <v>954.9</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G72" s="7">
         <v>773.1</v>
       </c>
     </row>
-    <row r="72" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="8">
+    <row r="73" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="20">
         <v>2016</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="8" t="s">
+      <c r="C73" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E73" s="7">
         <v>1358</v>
       </c>
-      <c r="F72" s="8">
+      <c r="F73" s="7">
         <v>801.8</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G73" s="7">
         <v>556.20000000000005</v>
       </c>
     </row>
-    <row r="73" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="8">
+    <row r="74" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="20">
         <v>2016</v>
       </c>
-      <c r="C73" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="8" t="s">
+      <c r="C74" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E74" s="7">
         <v>370</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F74" s="7">
         <v>153.1</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G74" s="7">
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="8">
+    <row r="75" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="20">
         <v>2016</v>
       </c>
-      <c r="C74" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="8" t="s">
+      <c r="C75" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E75" s="7">
         <v>267.3</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F75" s="7">
         <v>189.2</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G75" s="7">
         <v>78.099999999999994</v>
       </c>
     </row>
-    <row r="75" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="8">
+    <row r="76" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="20">
         <v>2016</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" s="8" t="s">
+      <c r="C76" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E76" s="7">
         <v>217.1</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F76" s="7">
         <v>157.6</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G76" s="7">
         <v>59.5</v>
       </c>
     </row>
-    <row r="76" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="8">
+    <row r="77" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="20">
         <v>2016</v>
       </c>
-      <c r="C76" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="8" t="s">
+      <c r="C77" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E77" s="7">
         <v>50.1</v>
       </c>
-      <c r="F76" s="8">
+      <c r="F77" s="7">
         <v>31.5</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G77" s="7">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="8">
+    <row r="78" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="20">
         <v>2016</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="8" t="s">
+      <c r="C78" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E78" s="7">
         <v>260.8</v>
       </c>
-      <c r="F77" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" s="8">
+      <c r="F78" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" s="7">
         <v>260.8</v>
       </c>
     </row>
-    <row r="78" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="8">
+    <row r="79" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="20">
         <v>2016</v>
       </c>
-      <c r="C78" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="8" t="s">
+      <c r="C79" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E79" s="7">
         <v>204.2</v>
       </c>
-      <c r="F78" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" s="8">
+      <c r="F79" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" s="7">
         <v>204.2</v>
       </c>
     </row>
-    <row r="79" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="8">
+    <row r="80" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="20">
         <v>2016</v>
       </c>
-      <c r="C79" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="8" t="s">
+      <c r="C80" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E80" s="7">
         <v>56.6</v>
       </c>
-      <c r="F79" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" s="8">
+      <c r="F80" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" s="7">
         <v>56.6</v>
       </c>
     </row>
-    <row r="80" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="8">
+    <row r="81" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="20">
         <v>2017</v>
       </c>
-      <c r="C80" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" s="8" t="s">
+      <c r="C81" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E81" s="7">
         <v>2242.6999999999998</v>
       </c>
-      <c r="F80" s="8">
+      <c r="F81" s="7">
         <v>1143.2</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G81" s="7">
         <v>1099.5</v>
       </c>
     </row>
-    <row r="81" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="8">
+    <row r="82" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="20">
         <v>2017</v>
       </c>
-      <c r="C81" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D81" s="8" t="s">
+      <c r="C82" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E82" s="7">
         <v>1737.6</v>
       </c>
-      <c r="F81" s="8">
+      <c r="F82" s="7">
         <v>948.1</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G82" s="7">
         <v>789.5</v>
       </c>
     </row>
-    <row r="82" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="8">
+    <row r="83" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="20">
         <v>2017</v>
       </c>
-      <c r="C82" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D82" s="8" t="s">
+      <c r="C83" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E83" s="7">
         <v>505.1</v>
       </c>
-      <c r="F82" s="8">
+      <c r="F83" s="7">
         <v>195.1</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G83" s="7">
         <v>310</v>
       </c>
     </row>
-    <row r="83" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="8">
+    <row r="84" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="20">
         <v>2017</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D83" s="8" t="s">
+      <c r="C84" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E84" s="7">
         <v>1707.3</v>
       </c>
-      <c r="F83" s="8">
+      <c r="F84" s="7">
         <v>935.8</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G84" s="7">
         <v>771.5</v>
       </c>
     </row>
-    <row r="84" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="8">
+    <row r="85" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="20">
         <v>2017</v>
       </c>
-      <c r="C84" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" s="8" t="s">
+      <c r="C85" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E84" s="8">
+      <c r="E85" s="7">
         <v>1311.7</v>
       </c>
-      <c r="F84" s="8">
+      <c r="F85" s="7">
         <v>777.2</v>
       </c>
-      <c r="G84" s="8">
+      <c r="G85" s="7">
         <v>534.5</v>
       </c>
     </row>
-    <row r="85" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="8">
+    <row r="86" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="20">
         <v>2017</v>
       </c>
-      <c r="C85" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" s="8" t="s">
+      <c r="C86" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E86" s="7">
         <v>395.6</v>
       </c>
-      <c r="F85" s="8">
+      <c r="F86" s="7">
         <v>158.69999999999999</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G86" s="7">
         <v>237</v>
       </c>
     </row>
-    <row r="86" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="8">
+    <row r="87" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="20">
         <v>2017</v>
       </c>
-      <c r="C86" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86" s="8" t="s">
+      <c r="C87" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E87" s="7">
         <v>291</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F87" s="7">
         <v>207.4</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G87" s="7">
         <v>83.6</v>
       </c>
     </row>
-    <row r="87" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="8">
+    <row r="88" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="20">
         <v>2017</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" s="8" t="s">
+      <c r="C88" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E88" s="7">
         <v>235.3</v>
       </c>
-      <c r="F87" s="8">
+      <c r="F88" s="7">
         <v>171</v>
       </c>
-      <c r="G87" s="8">
+      <c r="G88" s="7">
         <v>64.3</v>
       </c>
     </row>
-    <row r="88" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="8">
+    <row r="89" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="20">
         <v>2017</v>
       </c>
-      <c r="C88" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="8" t="s">
+      <c r="C89" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E89" s="7">
         <v>55.7</v>
       </c>
-      <c r="F88" s="8">
+      <c r="F89" s="7">
         <v>36.4</v>
       </c>
-      <c r="G88" s="8">
+      <c r="G89" s="7">
         <v>19.3</v>
       </c>
     </row>
-    <row r="89" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="8">
+    <row r="90" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="20">
         <v>2017</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" s="8" t="s">
+      <c r="C90" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E90" s="7">
         <v>244.4</v>
       </c>
-      <c r="F89" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G89" s="8">
+      <c r="F90" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90" s="7">
         <v>244.4</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="8">
+    <row r="91" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="20">
         <v>2017</v>
       </c>
-      <c r="C90" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D90" s="8" t="s">
+      <c r="C91" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E90" s="8">
+      <c r="E91" s="7">
         <v>190.7</v>
       </c>
-      <c r="F90" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G90" s="8">
+      <c r="F91" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91" s="7">
         <v>190.7</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="8">
+    <row r="92" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="20">
         <v>2017</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" s="8" t="s">
+      <c r="C92" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E91" s="8">
+      <c r="E92" s="7">
         <v>53.7</v>
       </c>
-      <c r="F91" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G91" s="8">
+      <c r="F92" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" s="7">
         <v>53.7</v>
       </c>
     </row>
-    <row r="92" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="8">
+    <row r="93" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="20">
         <v>2018</v>
       </c>
-      <c r="C92" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D92" s="8" t="s">
+      <c r="C93" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E92" s="8">
+      <c r="E93" s="7">
         <v>2255.4</v>
       </c>
-      <c r="F92" s="8">
+      <c r="F93" s="7">
         <v>1172.7</v>
       </c>
-      <c r="G92" s="8">
+      <c r="G93" s="7">
         <v>1082.7</v>
       </c>
     </row>
-    <row r="93" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="8">
+    <row r="94" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="20">
         <v>2018</v>
       </c>
-      <c r="C93" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D93" s="8" t="s">
+      <c r="C94" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="8">
+      <c r="E94" s="7">
         <v>1713</v>
       </c>
-      <c r="F93" s="8">
+      <c r="F94" s="7">
         <v>954.3</v>
       </c>
-      <c r="G93" s="8">
+      <c r="G94" s="7">
         <v>758.7</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="8">
+    <row r="95" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="20">
         <v>2018</v>
       </c>
-      <c r="C94" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94" s="8" t="s">
+      <c r="C95" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E94" s="8">
+      <c r="E95" s="7">
         <v>542.29999999999995</v>
       </c>
-      <c r="F94" s="8">
+      <c r="F95" s="7">
         <v>218.3</v>
       </c>
-      <c r="G94" s="8">
+      <c r="G95" s="7">
         <v>324</v>
       </c>
     </row>
-    <row r="95" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="8">
+    <row r="96" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="20">
         <v>2018</v>
       </c>
-      <c r="C95" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95" s="8" t="s">
+      <c r="C96" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E95" s="8">
+      <c r="E96" s="7">
         <v>1717.1</v>
       </c>
-      <c r="F95" s="8">
+      <c r="F96" s="7">
         <v>955.6</v>
       </c>
-      <c r="G95" s="8">
+      <c r="G96" s="7">
         <v>761.4</v>
       </c>
     </row>
-    <row r="96" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="8">
+    <row r="97" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="20">
         <v>2018</v>
       </c>
-      <c r="C96" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D96" s="8" t="s">
+      <c r="C97" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E96" s="8">
+      <c r="E97" s="7">
         <v>1294.3</v>
       </c>
-      <c r="F96" s="8">
+      <c r="F97" s="7">
         <v>782.3</v>
       </c>
-      <c r="G96" s="8">
+      <c r="G97" s="7">
         <v>511.9</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="8">
+    <row r="98" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="20">
         <v>2018</v>
       </c>
-      <c r="C97" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97" s="8" t="s">
+      <c r="C98" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E97" s="8">
+      <c r="E98" s="7">
         <v>422.8</v>
       </c>
-      <c r="F97" s="8">
+      <c r="F98" s="7">
         <v>173.3</v>
       </c>
-      <c r="G97" s="8">
+      <c r="G98" s="7">
         <v>249.5</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="8">
+    <row r="99" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="20">
         <v>2018</v>
       </c>
-      <c r="C98" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D98" s="8" t="s">
+      <c r="C99" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E98" s="8">
+      <c r="E99" s="7">
         <v>300.8</v>
       </c>
-      <c r="F98" s="8">
+      <c r="F99" s="7">
         <v>217</v>
       </c>
-      <c r="G98" s="8">
+      <c r="G99" s="7">
         <v>83.7</v>
       </c>
     </row>
-    <row r="99" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="8">
+    <row r="100" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="20">
         <v>2018</v>
       </c>
-      <c r="C99" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D99" s="8" t="s">
+      <c r="C100" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E99" s="8">
+      <c r="E100" s="7">
         <v>234</v>
       </c>
-      <c r="F99" s="8">
+      <c r="F100" s="7">
         <v>172</v>
       </c>
-      <c r="G99" s="8">
+      <c r="G100" s="7">
         <v>62.1</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="8">
+    <row r="101" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="20">
         <v>2018</v>
       </c>
-      <c r="C100" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D100" s="8" t="s">
+      <c r="C101" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E100" s="8">
+      <c r="E101" s="7">
         <v>66.8</v>
       </c>
-      <c r="F100" s="8">
+      <c r="F101" s="7">
         <v>45.1</v>
       </c>
-      <c r="G100" s="8">
+      <c r="G101" s="7">
         <v>21.7</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="8">
+    <row r="102" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="20">
         <v>2018</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D101" s="8" t="s">
+      <c r="C102" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E101" s="8">
+      <c r="E102" s="7">
         <v>237.5</v>
       </c>
-      <c r="F101" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G101" s="8">
+      <c r="F102" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G102" s="7">
         <v>237.5</v>
       </c>
     </row>
-    <row r="102" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="8">
+    <row r="103" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="20">
         <v>2018</v>
       </c>
-      <c r="C102" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D102" s="8" t="s">
+      <c r="C103" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E102" s="8">
+      <c r="E103" s="7">
         <v>184.7</v>
       </c>
-      <c r="F102" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" s="8">
+      <c r="F103" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G103" s="7">
         <v>184.7</v>
       </c>
     </row>
-    <row r="103" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="8">
+    <row r="104" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="20">
         <v>2018</v>
       </c>
-      <c r="C103" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D103" s="8" t="s">
+      <c r="C104" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E103" s="8">
+      <c r="E104" s="7">
         <v>52.8</v>
       </c>
-      <c r="F103" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G103" s="8">
+      <c r="F104" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G104" s="7">
         <v>52.8</v>
       </c>
     </row>
-    <row r="104" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="8">
+    <row r="105" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="20">
         <v>2019</v>
       </c>
-      <c r="C104" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D104" s="8" t="s">
+      <c r="C105" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E104" s="8">
+      <c r="E105" s="7">
         <v>2249.6</v>
       </c>
-      <c r="F104" s="8">
+      <c r="F105" s="7">
         <v>1154.3</v>
       </c>
-      <c r="G104" s="8">
+      <c r="G105" s="7">
         <v>1095.3</v>
       </c>
     </row>
-    <row r="105" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="8">
+    <row r="106" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="20">
         <v>2019</v>
       </c>
-      <c r="C105" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D105" s="8" t="s">
+      <c r="C106" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E105" s="8">
+      <c r="E106" s="7">
         <v>1706.1</v>
       </c>
-      <c r="F105" s="8">
+      <c r="F106" s="7">
         <v>943</v>
       </c>
-      <c r="G105" s="8">
+      <c r="G106" s="7">
         <v>763</v>
       </c>
     </row>
-    <row r="106" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="8">
+    <row r="107" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="20">
         <v>2019</v>
       </c>
-      <c r="C106" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D106" s="8" t="s">
+      <c r="C107" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E106" s="8">
+      <c r="E107" s="7">
         <v>543.5</v>
       </c>
-      <c r="F106" s="8">
+      <c r="F107" s="7">
         <v>211.3</v>
       </c>
-      <c r="G106" s="8">
+      <c r="G107" s="7">
         <v>332.2</v>
       </c>
     </row>
-    <row r="107" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="8">
+    <row r="108" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="20">
         <v>2019</v>
       </c>
-      <c r="C107" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107" s="8" t="s">
+      <c r="C108" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E107" s="8">
+      <c r="E108" s="7">
         <v>1710.4</v>
       </c>
-      <c r="F107" s="8">
+      <c r="F108" s="7">
         <v>946.8</v>
       </c>
-      <c r="G107" s="8">
+      <c r="G108" s="7">
         <v>763.6</v>
       </c>
     </row>
-    <row r="108" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="8">
+    <row r="109" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="20">
         <v>2019</v>
       </c>
-      <c r="C108" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D108" s="8" t="s">
+      <c r="C109" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E108" s="8">
+      <c r="E109" s="7">
         <v>1285.7</v>
       </c>
-      <c r="F108" s="8">
+      <c r="F109" s="7">
         <v>775.4</v>
       </c>
-      <c r="G108" s="8">
+      <c r="G109" s="7">
         <v>510.3</v>
       </c>
     </row>
-    <row r="109" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="8">
+    <row r="110" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="20">
         <v>2019</v>
       </c>
-      <c r="C109" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D109" s="8" t="s">
+      <c r="C110" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E109" s="8">
+      <c r="E110" s="7">
         <v>424.6</v>
       </c>
-      <c r="F109" s="8">
+      <c r="F110" s="7">
         <v>171.4</v>
       </c>
-      <c r="G109" s="8">
+      <c r="G110" s="7">
         <v>253.3</v>
       </c>
     </row>
-    <row r="110" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="8">
+    <row r="111" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="20">
         <v>2019</v>
       </c>
-      <c r="C110" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110" s="8" t="s">
+      <c r="C111" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E110" s="8">
+      <c r="E111" s="7">
         <v>299.2</v>
       </c>
-      <c r="F110" s="8">
+      <c r="F111" s="7">
         <v>207.5</v>
       </c>
-      <c r="G110" s="8">
+      <c r="G111" s="7">
         <v>91.7</v>
       </c>
     </row>
-    <row r="111" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="8">
+    <row r="112" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="20">
         <v>2019</v>
       </c>
-      <c r="C111" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111" s="8" t="s">
+      <c r="C112" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E111" s="8">
+      <c r="E112" s="7">
         <v>236.2</v>
       </c>
-      <c r="F111" s="8">
+      <c r="F112" s="7">
         <v>167.6</v>
       </c>
-      <c r="G111" s="8">
+      <c r="G112" s="7">
         <v>68.5</v>
       </c>
     </row>
-    <row r="112" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="8">
+    <row r="113" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="20">
         <v>2019</v>
       </c>
-      <c r="C112" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D112" s="8" t="s">
+      <c r="C113" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E112" s="8">
+      <c r="E113" s="7">
         <v>63.1</v>
       </c>
-      <c r="F112" s="8">
+      <c r="F113" s="7">
         <v>39.9</v>
       </c>
-      <c r="G112" s="8">
+      <c r="G113" s="7">
         <v>23.2</v>
       </c>
     </row>
-    <row r="113" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="8">
+    <row r="114" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="20">
         <v>2019</v>
       </c>
-      <c r="C113" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D113" s="8" t="s">
+      <c r="C114" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E113" s="8">
+      <c r="E114" s="7">
         <v>240</v>
       </c>
-      <c r="F113" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" s="8">
+      <c r="F114" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G114" s="7">
         <v>240</v>
       </c>
     </row>
-    <row r="114" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="8">
+    <row r="115" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="20">
         <v>2019</v>
       </c>
-      <c r="C114" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D114" s="8" t="s">
+      <c r="C115" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E114" s="8">
+      <c r="E115" s="7">
         <v>184.2</v>
       </c>
-      <c r="F114" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G114" s="8">
+      <c r="F115" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G115" s="7">
         <v>184.2</v>
       </c>
     </row>
-    <row r="115" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="8">
+    <row r="116" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="20">
         <v>2019</v>
       </c>
-      <c r="C115" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D115" s="8" t="s">
+      <c r="C116" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E115" s="8">
+      <c r="E116" s="7">
         <v>55.8</v>
       </c>
-      <c r="F115" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G115" s="8">
+      <c r="F116" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G116" s="7">
         <v>55.8</v>
       </c>
     </row>
-    <row r="116" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="8">
+    <row r="117" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="20">
         <v>2020</v>
       </c>
-      <c r="C116" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D116" s="8" t="s">
+      <c r="C117" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E116" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F116" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G116" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="8">
+      <c r="E117" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F117" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G117" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="20">
         <v>2020</v>
       </c>
-      <c r="C117" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D117" s="8" t="s">
+      <c r="C118" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E117" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F117" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G117" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="8">
+      <c r="E118" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F118" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="20">
         <v>2020</v>
       </c>
-      <c r="C118" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D118" s="8" t="s">
+      <c r="C119" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E118" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F118" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G118" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="8">
+      <c r="E119" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="20">
         <v>2020</v>
       </c>
-      <c r="C119" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D119" s="8" t="s">
+      <c r="C120" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E119" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F119" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G119" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="8">
+      <c r="E120" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G120" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="20">
         <v>2020</v>
       </c>
-      <c r="C120" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D120" s="8" t="s">
+      <c r="C121" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E120" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F120" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G120" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="8">
+      <c r="E121" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F121" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G121" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="20">
         <v>2020</v>
       </c>
-      <c r="C121" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="8" t="s">
+      <c r="C122" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E121" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F121" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G121" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="8">
+      <c r="E122" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F122" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G122" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="20">
         <v>2020</v>
       </c>
-      <c r="C122" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D122" s="8" t="s">
+      <c r="C123" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E122" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F122" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G122" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="8">
+      <c r="E123" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F123" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G123" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="20">
         <v>2020</v>
       </c>
-      <c r="C123" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D123" s="8" t="s">
+      <c r="C124" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E123" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F123" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G123" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="8">
+      <c r="E124" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F124" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G124" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="20">
         <v>2020</v>
       </c>
-      <c r="C124" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D124" s="8" t="s">
+      <c r="C125" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E124" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F124" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G124" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="8">
+      <c r="E125" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F125" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G125" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="20">
         <v>2020</v>
       </c>
-      <c r="C125" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D125" s="8" t="s">
+      <c r="C126" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E125" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F125" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G125" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="8">
+      <c r="E126" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F126" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G126" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="20">
         <v>2020</v>
       </c>
-      <c r="C126" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D126" s="8" t="s">
+      <c r="C127" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E126" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F126" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G126" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="8">
+      <c r="E127" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F127" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G127" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="20">
         <v>2020</v>
       </c>
-      <c r="C127" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D127" s="8" t="s">
+      <c r="C128" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E127" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F127" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G127" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="8">
+      <c r="E128" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F128" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G128" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="20">
         <v>2021</v>
       </c>
-      <c r="C128" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D128" s="8" t="s">
+      <c r="C129" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E128" s="8">
+      <c r="E129" s="7">
         <v>2277</v>
       </c>
-      <c r="F128" s="8">
+      <c r="F129" s="7">
         <v>1171</v>
       </c>
-      <c r="G128" s="8">
+      <c r="G129" s="7">
         <v>1106</v>
       </c>
     </row>
-    <row r="129" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="8">
+    <row r="130" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="20">
         <v>2021</v>
       </c>
-      <c r="C129" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D129" s="8" t="s">
+      <c r="C130" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D130" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E129" s="8">
+      <c r="E130" s="7">
         <v>1667</v>
       </c>
-      <c r="F129" s="8">
+      <c r="F130" s="7">
         <v>941</v>
       </c>
-      <c r="G129" s="8">
+      <c r="G130" s="7">
         <v>726</v>
       </c>
     </row>
-    <row r="130" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="8">
+    <row r="131" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="20">
         <v>2021</v>
       </c>
-      <c r="C130" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D130" s="8" t="s">
+      <c r="C131" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E130" s="8">
+      <c r="E131" s="7">
         <v>610</v>
       </c>
-      <c r="F130" s="8">
+      <c r="F131" s="7">
         <v>230</v>
       </c>
-      <c r="G130" s="8">
+      <c r="G131" s="7">
         <v>380</v>
       </c>
     </row>
-    <row r="131" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="8">
+    <row r="132" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="20">
         <v>2021</v>
       </c>
-      <c r="C131" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D131" s="8" t="s">
+      <c r="C132" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E131" s="8">
+      <c r="E132" s="7">
         <v>1724</v>
       </c>
-      <c r="F131" s="8">
+      <c r="F132" s="7">
         <v>955</v>
       </c>
-      <c r="G131" s="8">
+      <c r="G132" s="7">
         <v>769</v>
       </c>
     </row>
-    <row r="132" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="8">
+    <row r="133" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="20">
         <v>2021</v>
       </c>
-      <c r="C132" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D132" s="8" t="s">
+      <c r="C133" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E132" s="8">
+      <c r="E133" s="7">
         <v>1259</v>
       </c>
-      <c r="F132" s="8">
+      <c r="F133" s="7">
         <v>767</v>
       </c>
-      <c r="G132" s="8">
+      <c r="G133" s="7">
         <v>492</v>
       </c>
     </row>
-    <row r="133" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="8">
+    <row r="134" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="20">
         <v>2021</v>
       </c>
-      <c r="C133" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D133" s="8" t="s">
+      <c r="C134" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E133" s="8">
+      <c r="E134" s="7">
         <v>464</v>
       </c>
-      <c r="F133" s="8">
+      <c r="F134" s="7">
         <v>187</v>
       </c>
-      <c r="G133" s="8">
+      <c r="G134" s="7">
         <v>277</v>
       </c>
     </row>
-    <row r="134" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="8">
+    <row r="135" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="20">
         <v>2021</v>
       </c>
-      <c r="C134" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D134" s="8" t="s">
+      <c r="C135" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E134" s="8">
+      <c r="E135" s="7">
         <v>312</v>
       </c>
-      <c r="F134" s="8">
+      <c r="F135" s="7">
         <v>216</v>
       </c>
-      <c r="G134" s="8">
+      <c r="G135" s="7">
         <v>96</v>
       </c>
     </row>
-    <row r="135" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="8">
+    <row r="136" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="20">
         <v>2021</v>
       </c>
-      <c r="C135" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D135" s="8" t="s">
+      <c r="C136" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E135" s="8">
+      <c r="E136" s="7">
         <v>240</v>
       </c>
-      <c r="F135" s="8">
+      <c r="F136" s="7">
         <v>174</v>
       </c>
-      <c r="G135" s="8">
+      <c r="G136" s="7">
         <v>66</v>
       </c>
     </row>
-    <row r="136" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="8">
+    <row r="137" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="20">
         <v>2021</v>
       </c>
-      <c r="C136" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D136" s="8" t="s">
+      <c r="C137" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E136" s="8">
+      <c r="E137" s="7">
         <v>73</v>
       </c>
-      <c r="F136" s="8">
+      <c r="F137" s="7">
         <v>42</v>
       </c>
-      <c r="G136" s="8">
+      <c r="G137" s="7">
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="8">
+    <row r="138" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="20">
         <v>2021</v>
       </c>
-      <c r="C137" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D137" s="8" t="s">
+      <c r="C138" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E137" s="8">
+      <c r="E138" s="7">
         <v>241</v>
       </c>
-      <c r="F137" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G137" s="8">
+      <c r="F138" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G138" s="7">
         <v>241</v>
       </c>
     </row>
-    <row r="138" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="8">
+    <row r="139" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="20">
         <v>2021</v>
       </c>
-      <c r="C138" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D138" s="8" t="s">
+      <c r="C139" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E138" s="8">
+      <c r="E139" s="7">
         <v>168</v>
       </c>
-      <c r="F138" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G138" s="8">
+      <c r="F139" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G139" s="7">
         <v>168</v>
       </c>
     </row>
-    <row r="139" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="8">
+    <row r="140" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="20">
         <v>2021</v>
       </c>
-      <c r="C139" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D139" s="8" t="s">
+      <c r="C140" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E139" s="8">
+      <c r="E140" s="7">
         <v>73</v>
       </c>
-      <c r="F139" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G139" s="8">
+      <c r="F140" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G140" s="7">
         <v>73</v>
       </c>
     </row>
-    <row r="140" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="9"/>
-    </row>
-    <row r="141" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="10" t="s">
+    <row r="141" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="8"/>
+    </row>
+    <row r="142" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
-      <c r="I141" s="10"/>
-      <c r="J141" s="10"/>
-    </row>
-    <row r="142" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="10" t="s">
+      <c r="C142" s="16"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="16"/>
+      <c r="I142" s="16"/>
+      <c r="J142" s="16"/>
+    </row>
+    <row r="143" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="10"/>
-      <c r="J142" s="10"/>
-    </row>
-    <row r="143" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="11" t="s">
+      <c r="C143" s="16"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="16"/>
+      <c r="H143" s="16"/>
+      <c r="I143" s="16"/>
+      <c r="J143" s="16"/>
+    </row>
+    <row r="144" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C143" s="12"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="12"/>
-      <c r="G143" s="12"/>
-      <c r="H143" s="12"/>
-      <c r="I143" s="12"/>
-      <c r="J143" s="13"/>
-    </row>
-    <row r="144" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="14"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="10"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="11"/>
     </row>
     <row r="145" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="15" t="s">
+      <c r="B145" s="12"/>
+    </row>
+    <row r="146" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="15" t="s">
+    <row r="147" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="15" t="s">
+    <row r="149" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="15" t="s">
+    <row r="150" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="16" t="s">
+    <row r="151" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="14" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B7:J139" xr:uid="{1F1766AA-700E-4B3E-8054-0C58D3F6CC90}"/>
-  <mergeCells count="2">
-    <mergeCell ref="B141:J141"/>
+  <mergeCells count="6">
     <mergeCell ref="B142:J142"/>
+    <mergeCell ref="B143:J143"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E7:G7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B150" r:id="rId1" xr:uid="{4F0D8F48-F951-41AB-A35E-59462B529D2A}"/>
-    <hyperlink ref="B143" r:id="rId2" xr:uid="{0B3C8482-260C-4F3D-AAF3-23B8CD49FEBC}"/>
+    <hyperlink ref="B151" r:id="rId1" xr:uid="{4F0D8F48-F951-41AB-A35E-59462B529D2A}"/>
+    <hyperlink ref="B144" r:id="rId2" xr:uid="{0B3C8482-260C-4F3D-AAF3-23B8CD49FEBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
